--- a/biology/Botanique/Campanula_alpestris/Campanula_alpestris.xlsx
+++ b/biology/Botanique/Campanula_alpestris/Campanula_alpestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Campanule des Alpes (Campanula alpestris) est une espèce de plantes à fleurs de la famille des Campanulacées. C'est une petite plante herbacée vivace de 3 à 10 cm (rarement plus)[2] qui pousse dans les pelouses caillouteuses, les éboulis, entre les rochers, dans les Alpes occidentales (endémique du Dauphiné, de la Savoie et du Piémont).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Campanule des Alpes (Campanula alpestris) est une espèce de plantes à fleurs de la famille des Campanulacées. C'est une petite plante herbacée vivace de 3 à 10 cm (rarement plus) qui pousse dans les pelouses caillouteuses, les éboulis, entre les rochers, dans les Alpes occidentales (endémique du Dauphiné, de la Savoie et du Piémont).
 Synonymes : Campanula allionii Vill., 1779 ; Campanula cenisia All., 1785.
 Espèce proche : Campanula alpina All. (des Alpes centrales, orientales, des Carpates).
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grandes fleurs sont bleues (longues de 3 à 4 cm), en forme de clochette (5 pétales soudés), le plus souvent solitaires et penchées. Le  calice est formé de 5 sépales larges séparés par des lobes rabattus. Les feuilles en rosette portent des poils rudes. Floraison en juillet-août.
 			Spécimens dans le Massif du Vercors (France)
